--- a/biology/Mycologie/Pourriture_sèche_fusarienne/Pourriture_sèche_fusarienne.xlsx
+++ b/biology/Mycologie/Pourriture_sèche_fusarienne/Pourriture_sèche_fusarienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pourriture_s%C3%A8che_fusarienne</t>
+          <t>Pourriture_sèche_fusarienne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La pourriture sèche fusarienne, ou fusariose, est une maladie fongique qui affecte la pomme de terre, et particulièrement les tubercules en période de conservation. Cette maladie est causée par diverses espèces de champignons appartenant au genre Fusarium.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pourriture_s%C3%A8che_fusarienne</t>
+          <t>Pourriture_sèche_fusarienne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Agents responsables</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les champignons responsables de cette maladie appartiennent à plusieurs espèces du genre Fusarium :
 espèces principales :
@@ -525,7 +539,7 @@
 Fusarium oxysporum.
 Fusarium roseum,
 Fusarium sporotrichiodes,
-Fusarium sambucinum est l'agent pathogène le plus courant en Amérique du Nord[1].
+Fusarium sambucinum est l'agent pathogène le plus courant en Amérique du Nord.
 </t>
         </is>
       </c>
@@ -536,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pourriture_s%C3%A8che_fusarienne</t>
+          <t>Pourriture_sèche_fusarienne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,6 +569,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pourriture_s%C3%A8che_fusarienne</t>
+          <t>Pourriture_sèche_fusarienne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,6 +597,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
